--- a/dynare/values.xlsx
+++ b/dynare/values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\masterthesis\dynare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9533E35-AD2C-4D85-809B-D7B478D6D956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA79C642-50D3-4752-AAEB-9CC039FCCD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18390" yWindow="2115" windowWidth="9360" windowHeight="12750" xr2:uid="{02DD5305-4912-4ACE-8A53-296EC95492FA}"/>
+    <workbookView xWindow="4245" yWindow="495" windowWidth="9360" windowHeight="12750" xr2:uid="{02DD5305-4912-4ACE-8A53-296EC95492FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,49 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t>alp1</t>
-  </si>
-  <si>
-    <t>alp2</t>
-  </si>
-  <si>
-    <t>bet</t>
-  </si>
-  <si>
-    <t>gamR</t>
-  </si>
-  <si>
-    <t>gampi</t>
-  </si>
-  <si>
-    <t>gamY</t>
-  </si>
-  <si>
-    <t>del</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>theY1</t>
-  </si>
-  <si>
-    <t>theC11</t>
-  </si>
-  <si>
-    <t>theC12</t>
-  </si>
-  <si>
-    <t>theC21</t>
-  </si>
-  <si>
-    <t>theC22</t>
-  </si>
-  <si>
-    <t>theP1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>rhoA1</t>
   </si>
@@ -78,33 +36,12 @@
     <t>rhoM</t>
   </si>
   <si>
-    <t>sig</t>
-  </si>
-  <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>varp</t>
-  </si>
-  <si>
-    <t>psi</t>
-  </si>
-  <si>
-    <t>ome11</t>
-  </si>
-  <si>
-    <t>ome21</t>
-  </si>
-  <si>
     <t>Pss</t>
   </si>
   <si>
     <t>ZA1ss</t>
   </si>
   <si>
-    <t>ZA2ss</t>
-  </si>
-  <si>
     <t>Rss</t>
   </si>
   <si>
@@ -175,6 +112,63 @@
   </si>
   <si>
     <t>L2ss</t>
+  </si>
+  <si>
+    <t>alppha</t>
+  </si>
+  <si>
+    <t>betta</t>
+  </si>
+  <si>
+    <t>gammaR</t>
+  </si>
+  <si>
+    <t>gammapi</t>
+  </si>
+  <si>
+    <t>gammaY</t>
+  </si>
+  <si>
+    <t>dellta</t>
+  </si>
+  <si>
+    <t>thetta</t>
+  </si>
+  <si>
+    <t>thetaY1</t>
+  </si>
+  <si>
+    <t>thetaC11</t>
+  </si>
+  <si>
+    <t>thetaC12</t>
+  </si>
+  <si>
+    <t>thetaC21</t>
+  </si>
+  <si>
+    <t>thetaC22</t>
+  </si>
+  <si>
+    <t>thetaPY1</t>
+  </si>
+  <si>
+    <t>siggma</t>
+  </si>
+  <si>
+    <t>phhi</t>
+  </si>
+  <si>
+    <t>varphhi</t>
+  </si>
+  <si>
+    <t>pssi</t>
+  </si>
+  <si>
+    <t>omega11</t>
+  </si>
+  <si>
+    <t>omega21</t>
   </si>
 </sst>
 </file>
@@ -543,7 +537,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B50"/>
+      <selection sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,119 +548,119 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>0.2</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>0.79</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
-        <v>2.4300000000000002</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1">
-        <v>0.16</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
-        <v>0.85</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>0.95</v>
@@ -674,71 +668,71 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
-        <v>0.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
-        <v>1.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
-        <v>8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -746,199 +740,199 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>1.5228426395939021E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>4.0228426395939043E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
-        <v>1.5228426395939021E-2</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
-        <v>4.0228426395939043E-2</v>
+        <v>1.6966741300604498</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>0.875</v>
+        <v>2.3022155587729731</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
-        <v>2.2208333461466796</v>
+        <v>2.1785096722603874</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1">
-        <v>3.4226656721248907</v>
+        <v>0.19031940063091501</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1">
-        <v>2.6102008963875818</v>
+        <v>0.19031940063091501</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1">
-        <v>0.21750788643533148</v>
+        <v>2.4183364483726884</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1">
-        <v>0.10875394321766574</v>
+        <v>2.4958776290433153</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1">
-        <v>3.0931695513372803</v>
+        <v>0.46025634337818577</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1">
-        <v>2.619807126819186</v>
+        <v>0.47501393440763301</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1">
-        <v>0.67278877149749439</v>
+        <v>1.1871577814778351</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1">
-        <v>0.28491435551132976</v>
+        <v>1.0970894182319473</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1">
-        <v>1.4674444981066084</v>
+        <v>1.9580801049945027</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1">
-        <v>1.2675699795625812</v>
+        <v>2.020863694635683</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1">
-        <v>2.4203807798397863</v>
+        <v>1.5664640839956023</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1">
-        <v>2.3348927713078562</v>
+        <v>1.4146045862449781</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1">
-        <v>1.9363046238718291</v>
+        <v>0.39161602099890047</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1">
-        <v>1.6344249399154993</v>
+        <v>0.60625910839070496</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1">
-        <v>0.48407615596795717</v>
+        <v>18.410253735127434</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1">
-        <v>0.70046783139235702</v>
+        <v>19.000557376305323</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1">
-        <v>26.911550859899773</v>
+        <v>0.81066177095713843</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1">
-        <v>11.396574220453191</v>
+        <v>0.83665470956866073</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B49" s="1">
         <v>0.7312183137333067</v>
@@ -946,7 +940,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1">
         <v>0.82575533727252892</v>

--- a/dynare/values.xlsx
+++ b/dynare/values.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\masterthesis\dynare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA79C642-50D3-4752-AAEB-9CC039FCCD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362B7D8-A135-4A2A-9082-C21B65080F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="495" windowWidth="9360" windowHeight="12750" xr2:uid="{02DD5305-4912-4ACE-8A53-296EC95492FA}"/>
+    <workbookView xWindow="4245" yWindow="495" windowWidth="9360" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>rhoA1</t>
   </si>
@@ -150,9 +150,6 @@
     <t>thetaC22</t>
   </si>
   <si>
-    <t>thetaPY1</t>
-  </si>
-  <si>
     <t>siggma</t>
   </si>
   <si>
@@ -169,6 +166,153 @@
   </si>
   <si>
     <t>omega21</t>
+  </si>
+  <si>
+    <t>rK</t>
+  </si>
+  <si>
+    <t>alppha</t>
+  </si>
+  <si>
+    <t>betta</t>
+  </si>
+  <si>
+    <t>gammaR</t>
+  </si>
+  <si>
+    <t>gammapi</t>
+  </si>
+  <si>
+    <t>gammaY</t>
+  </si>
+  <si>
+    <t>dellta</t>
+  </si>
+  <si>
+    <t>thetta</t>
+  </si>
+  <si>
+    <t>rhoA1</t>
+  </si>
+  <si>
+    <t>rhoA2</t>
+  </si>
+  <si>
+    <t>rhoM</t>
+  </si>
+  <si>
+    <t>siggma</t>
+  </si>
+  <si>
+    <t>phhi</t>
+  </si>
+  <si>
+    <t>varphhi</t>
+  </si>
+  <si>
+    <t>pssi</t>
+  </si>
+  <si>
+    <t>omega11</t>
+  </si>
+  <si>
+    <t>omega21</t>
+  </si>
+  <si>
+    <t>Pss</t>
+  </si>
+  <si>
+    <t>ZA1ss</t>
+  </si>
+  <si>
+    <t>Rss</t>
+  </si>
+  <si>
+    <t>RKss</t>
+  </si>
+  <si>
+    <t>LAMBDAss</t>
+  </si>
+  <si>
+    <t>Wss</t>
+  </si>
+  <si>
+    <t>a1ss</t>
+  </si>
+  <si>
+    <t>a2ss</t>
+  </si>
+  <si>
+    <t>b1ss</t>
+  </si>
+  <si>
+    <t>b2ss</t>
+  </si>
+  <si>
+    <t>Y1ss</t>
+  </si>
+  <si>
+    <t>Y2ss</t>
+  </si>
+  <si>
+    <t>I1ss</t>
+  </si>
+  <si>
+    <t>I2ss</t>
+  </si>
+  <si>
+    <t>C1ss</t>
+  </si>
+  <si>
+    <t>C2ss</t>
+  </si>
+  <si>
+    <t>E1ss</t>
+  </si>
+  <si>
+    <t>E2ss</t>
+  </si>
+  <si>
+    <t>C11ss</t>
+  </si>
+  <si>
+    <t>C21ss</t>
+  </si>
+  <si>
+    <t>C12ss</t>
+  </si>
+  <si>
+    <t>C22ss</t>
+  </si>
+  <si>
+    <t>K1ss</t>
+  </si>
+  <si>
+    <t>K2ss</t>
+  </si>
+  <si>
+    <t>L1ss</t>
+  </si>
+  <si>
+    <t>L2ss</t>
+  </si>
+  <si>
+    <t>rK</t>
+  </si>
+  <si>
+    <t>thetaY1</t>
+  </si>
+  <si>
+    <t>thetaC11</t>
+  </si>
+  <si>
+    <t>thetaC12</t>
+  </si>
+  <si>
+    <t>thetaC21</t>
+  </si>
+  <si>
+    <t>thetaC22</t>
   </si>
 </sst>
 </file>
@@ -203,7 +347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,14 +355,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,401 +682,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D04769-E7E7-49E8-A304-75FC72FDED37}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
+        <v>0.34999999999999998</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="1">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
+        <v>0.79000000000000004</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="1">
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
+        <v>0.025000000000000001</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="B7" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
+        <v>0.94999999999999996</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="B9" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
+        <v>0.94999999999999996</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="B10" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="B11" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="B12" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="B13" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="B14" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="B19" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
+        <v>0.015228426395939021</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
+        <v>0.040228426395939043</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="B21" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="B22" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
+        <v>1.6966741300604498</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
+        <v>2.3022155587729731</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
+        <v>2.1785096722603874</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="B25" s="1">
-        <v>1.5228426395939021E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
+        <v>0.19031940063091501</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="B26" s="1">
-        <v>4.0228426395939043E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
+        <v>0.19031940063091501</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="B27" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
+        <v>2.4183364483726884</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.25">
+      <c r="A28" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="B28" s="1">
-        <v>1.6966741300604498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
+        <v>2.4958776290433153</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="B29" s="1">
-        <v>2.3022155587729731</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
+        <v>0.46025634337818577</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="B30" s="1">
-        <v>2.1785096722603874</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>11</v>
+        <v>0.47501393440763301</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="A31" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="B31" s="1">
-        <v>0.19031940063091501</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>12</v>
+        <v>1.1871577814778351</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.25">
+      <c r="A32" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="B32" s="1">
-        <v>0.19031940063091501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>13</v>
+        <v>1.0970894182319473</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.25">
+      <c r="A33" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="1">
-        <v>2.4183364483726884</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
+        <v>1.9580801049945027</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.25">
+      <c r="A34" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="B34" s="1">
-        <v>2.4958776290433153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>15</v>
+        <v>2.020863694635683</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.25">
+      <c r="A35" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="B35" s="1">
-        <v>0.46025634337818577</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>16</v>
+        <v>1.5664640839956023</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.25">
+      <c r="A36" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="B36" s="1">
-        <v>0.47501393440763301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>17</v>
+        <v>1.4146045862449781</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.25">
+      <c r="A37" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="B37" s="1">
-        <v>1.1871577814778351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>18</v>
+        <v>0.39161602099890047</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.25">
+      <c r="A38" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="B38" s="1">
-        <v>1.0970894182319473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>19</v>
+        <v>0.60625910839070496</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="B39" s="1">
-        <v>1.9580801049945027</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>20</v>
+        <v>18.410253735127434</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.25">
+      <c r="A40" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="B40" s="1">
-        <v>2.020863694635683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>21</v>
+        <v>19.000557376305323</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.25">
+      <c r="A41" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="B41" s="1">
-        <v>1.5664640839956023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>22</v>
+        <v>0.81066177095713843</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.25">
+      <c r="A42" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="B42" s="1">
-        <v>1.4146045862449781</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
+        <v>0.83665470956866073</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.25">
+      <c r="A43" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="B43" s="1">
-        <v>0.39161602099890047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>24</v>
+        <v>0.040228426395939043</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.25">
+      <c r="A44" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="B44" s="1">
-        <v>0.60625910839070496</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>25</v>
+        <v>0.49211052068051137</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="B45" s="1">
-        <v>18.410253735127434</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>26</v>
+        <v>0.64774447949526814</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.25">
+      <c r="A46" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="B46" s="1">
-        <v>19.000557376305323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>27</v>
+        <v>0.5849494544883832</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.25">
+      <c r="A47" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="B47" s="1">
-        <v>0.81066177095713843</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>28</v>
+        <v>0.15690513687123725</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.25">
+      <c r="A48" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="B48" s="1">
-        <v>0.83665470956866073</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2429041798107256</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -938,7 +1084,7 @@
         <v>0.7312183137333067</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -947,6 +1093,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>